--- a/Reports/ZacksRank/TanzyReport.xlsx
+++ b/Reports/ZacksRank/TanzyReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="219">
   <si>
     <t>May_20</t>
   </si>
@@ -596,6 +596,87 @@
   </si>
   <si>
     <t>Buy        ($194.37)</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Hold       ($10.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.42)</t>
+  </si>
+  <si>
+    <t>UN         ($4.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.54)</t>
+  </si>
+  <si>
+    <t>Sell       ($61.89)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.25)</t>
+  </si>
+  <si>
+    <t>Buy        ($42.54)</t>
+  </si>
+  <si>
+    <t>Buy        ($23.26)</t>
+  </si>
+  <si>
+    <t>Buy        ($191.75)</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
+  </si>
+  <si>
+    <t>Sell       ($10.85)</t>
+  </si>
+  <si>
+    <t>Jun_18</t>
+  </si>
+  <si>
+    <t>Sell       ($10.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.20)</t>
+  </si>
+  <si>
+    <t>Sell       ($63.71)</t>
+  </si>
+  <si>
+    <t>Buy        ($44.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($79.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.73)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.82)</t>
+  </si>
+  <si>
+    <t>Buy        ($23.05)</t>
+  </si>
+  <si>
+    <t>Buy        ($191.11)</t>
   </si>
 </sst>
 </file>
@@ -612,7 +693,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,6 +735,26 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -667,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -675,6 +776,8 @@
     <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1004,64 +1107,76 @@
     <col min="6" max="6" customWidth="true" width="14.1640625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="14.1640625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.1640625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.6640625" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1070,51 +1185,60 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1123,51 +1247,60 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="T3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1176,51 +1309,60 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1229,51 +1371,60 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="Q5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="R5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="S5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="T5" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1282,51 +1433,60 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="Q6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="R6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1335,51 +1495,60 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="Q7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="R7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="S7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="T7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1388,51 +1557,60 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="P8" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="Q8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="R8" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="S8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="T8" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1441,51 +1619,60 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="Q9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="R9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="S9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="T9" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1494,51 +1681,60 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="Q10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="R10" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="S10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="T10" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1547,51 +1743,60 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="L11" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="N11" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="Q11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="R11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="T11" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1600,51 +1805,60 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="L12" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="M12" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="N12" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="O12" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="P12" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="Q12" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="R12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="S12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="T12" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1653,51 +1867,60 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="O13" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="P13" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="Q13" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="S13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="T13" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Reports/ZacksRank/TanzyReport.xlsx
+++ b/Reports/ZacksRank/TanzyReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4874" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6070" uniqueCount="282">
   <si>
     <t>May_20</t>
   </si>
@@ -791,6 +791,81 @@
   </si>
   <si>
     <t>Buy        ($188.83)</t>
+  </si>
+  <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Hold       ($6.52)</t>
+  </si>
+  <si>
+    <t>UN         ($3.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($62.54)</t>
+  </si>
+  <si>
+    <t>Sell       ($51.97)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($75.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.86)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.98)</t>
+  </si>
+  <si>
+    <t>Buy        ($26.11)</t>
+  </si>
+  <si>
+    <t>Buy        ($186.44)</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Sell       ($10.70)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.32)</t>
+  </si>
+  <si>
+    <t>UN         ($3.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($60.07)</t>
+  </si>
+  <si>
+    <t>Sell       ($50.09)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($76.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.88)</t>
+  </si>
+  <si>
+    <t>Buy        ($40.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.68)</t>
+  </si>
+  <si>
+    <t>Buy        ($184.91)</t>
   </si>
 </sst>
 </file>
@@ -807,7 +882,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,6 +964,26 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -902,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -948,7 +1043,32 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -957,8 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,82 +1414,90 @@
     <col min="12" max="12" customWidth="true" width="14.1640625" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="14.1640625" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.1640625" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.6640625" collapsed="true"/>
     <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="20" max="20" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="22" max="22" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1378,70 +1505,76 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="E2" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="Y2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1449,70 +1582,76 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="T3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="X3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="Y3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1520,70 +1659,76 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="E4" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="U4" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="X4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="Y4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1591,70 +1736,76 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="E5" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="Q5" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="R5" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="S5" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="T5" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="U5" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="X5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="Y5" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1662,70 +1813,76 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="E6" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="F6" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="Q6" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="W6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="X6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="Y6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1733,70 +1890,76 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="74" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="E7" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="F7" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="Q7" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="R7" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="S7" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="T7" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="U7" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="W7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="X7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="Y7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1804,70 +1967,76 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="E8" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="F8" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="P8" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="Q8" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="R8" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="S8" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="T8" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="U8" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="T8" s="0" t="s">
+      <c r="V8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="W8" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="X8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="0" t="s">
+      <c r="Y8" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1875,70 +2044,76 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="E9" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="F9" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="Q9" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="R9" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="S9" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="T9" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="U9" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="V9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="W9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="X9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="Y9" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1946,70 +2121,76 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="E10" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="Q10" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="R10" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="S10" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="T10" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="U10" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="V10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="W10" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="X10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="W10" s="0" t="s">
+      <c r="Y10" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2017,70 +2198,76 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="E11" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="L11" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="N11" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="Q11" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="R11" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="S11" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="T11" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="U11" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="V11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="W11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="Y11" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2088,70 +2275,76 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="E12" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="F12" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="G12" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="L12" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="M12" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="N12" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="O12" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="P12" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="Q12" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="R12" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="S12" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="T12" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="U12" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="V12" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="W12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="X12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="0" t="s">
+      <c r="Y12" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2159,70 +2352,76 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="E13" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="F13" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="G13" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="O13" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="Q13" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="R13" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="S13" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="T13" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="U13" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="T13" s="0" t="s">
+      <c r="V13" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V13" s="0" t="s">
+      <c r="X13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="W13" s="0" t="s">
+      <c r="Y13" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Reports/ZacksRank/TanzyReport.xlsx
+++ b/Reports/ZacksRank/TanzyReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6070" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56939" uniqueCount="805">
   <si>
     <t>May_20</t>
   </si>
@@ -866,6 +866,1575 @@
   </si>
   <si>
     <t>Buy        ($184.91)</t>
+  </si>
+  <si>
+    <t>Jul_01</t>
+  </si>
+  <si>
+    <t>Sell       ($11.15)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.41)</t>
+  </si>
+  <si>
+    <t>UN         ($3.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($61.65)</t>
+  </si>
+  <si>
+    <t>Sell       ($51.57)</t>
+  </si>
+  <si>
+    <t>Buy        ($42.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($75.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.45)</t>
+  </si>
+  <si>
+    <t>Buy        ($42.19)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.95)</t>
+  </si>
+  <si>
+    <t>Buy        ($186.70)</t>
+  </si>
+  <si>
+    <t>Jul_02</t>
+  </si>
+  <si>
+    <t>Sell       ($11.30)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.50)</t>
+  </si>
+  <si>
+    <t>UN         ($3.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.13)</t>
+  </si>
+  <si>
+    <t>Sell       ($52.32)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($75.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.54)</t>
+  </si>
+  <si>
+    <t>Buy        ($42.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.63)</t>
+  </si>
+  <si>
+    <t>Buy        ($187.60)</t>
+  </si>
+  <si>
+    <t>Jul_08</t>
+  </si>
+  <si>
+    <t>Sell       ($12.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.29)</t>
+  </si>
+  <si>
+    <t>Sell       ($53.75)</t>
+  </si>
+  <si>
+    <t>Buy        ($46.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.04)</t>
+  </si>
+  <si>
+    <t>Buy        ($187.54)</t>
+  </si>
+  <si>
+    <t>Jul_18</t>
+  </si>
+  <si>
+    <t>Hold       ($11.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.30)</t>
+  </si>
+  <si>
+    <t>Sell       ($58.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.53)</t>
+  </si>
+  <si>
+    <t>Buy        ($37.70)</t>
+  </si>
+  <si>
+    <t>Buy        ($44.44)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.11)</t>
+  </si>
+  <si>
+    <t>Buy        ($200.51)</t>
+  </si>
+  <si>
+    <t>Jul_20</t>
+  </si>
+  <si>
+    <t>Hold       ($12.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.41)</t>
+  </si>
+  <si>
+    <t>Sell       ($56.48)</t>
+  </si>
+  <si>
+    <t>Buy        ($49.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($74.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.65)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.80)</t>
+  </si>
+  <si>
+    <t>Sell       ($28.40)</t>
+  </si>
+  <si>
+    <t>Buy        ($196.77)</t>
+  </si>
+  <si>
+    <t>Jul_24</t>
+  </si>
+  <si>
+    <t>Hold       ($12.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($69.36)</t>
+  </si>
+  <si>
+    <t>Sell       ($53.29)</t>
+  </si>
+  <si>
+    <t>Buy        ($46.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($71.19)</t>
+  </si>
+  <si>
+    <t>Sell       ($35.31)</t>
+  </si>
+  <si>
+    <t>Buy        ($39.36)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.77)</t>
+  </si>
+  <si>
+    <t>Buy        ($198.45)</t>
+  </si>
+  <si>
+    <t>Jul_29</t>
+  </si>
+  <si>
+    <t>Hold       ($12.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($69.85)</t>
+  </si>
+  <si>
+    <t>Sell       ($51.89)</t>
+  </si>
+  <si>
+    <t>Buy        ($47.54)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($80.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.21)</t>
+  </si>
+  <si>
+    <t>Buy        ($39.48)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.97)</t>
+  </si>
+  <si>
+    <t>Sell       ($26.83)</t>
+  </si>
+  <si>
+    <t>Buy        ($198.03)</t>
+  </si>
+  <si>
+    <t>Aug_01</t>
+  </si>
+  <si>
+    <t>Hold       ($12.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.92)</t>
+  </si>
+  <si>
+    <t>Sell       ($49.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.65)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($78.98)</t>
+  </si>
+  <si>
+    <t>Sell       ($36.28)</t>
+  </si>
+  <si>
+    <t>Buy        ($37.94)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.20)</t>
+  </si>
+  <si>
+    <t>Sell       ($26.47)</t>
+  </si>
+  <si>
+    <t>Buy        ($197.93)</t>
+  </si>
+  <si>
+    <t>Aug_05</t>
+  </si>
+  <si>
+    <t>Hold       ($11.88)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.46)</t>
+  </si>
+  <si>
+    <t>Sell       ($50.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.47)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($81.74)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.17)</t>
+  </si>
+  <si>
+    <t>Buy        ($38.95)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.72)</t>
+  </si>
+  <si>
+    <t>Buy        ($200.40)</t>
+  </si>
+  <si>
+    <t>Aug_12</t>
+  </si>
+  <si>
+    <t>Hold       ($12.03)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.59)</t>
+  </si>
+  <si>
+    <t>Sell       ($54.33)</t>
+  </si>
+  <si>
+    <t>Hold       ($58.05)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($86.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.79)</t>
+  </si>
+  <si>
+    <t>Buy        ($39.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.77)</t>
+  </si>
+  <si>
+    <t>Buy        ($206.57)</t>
+  </si>
+  <si>
+    <t>Aug_14</t>
+  </si>
+  <si>
+    <t>Hold       ($11.92)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($74.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($55.79)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($87.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.88)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.66)</t>
+  </si>
+  <si>
+    <t>Buy        ($205.85)</t>
+  </si>
+  <si>
+    <t>Aug_18</t>
+  </si>
+  <si>
+    <t>Buy        ($13.08)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($72.88)</t>
+  </si>
+  <si>
+    <t>Sell       ($53.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($56.07)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($94.77)</t>
+  </si>
+  <si>
+    <t>StrongSell ($32.22)</t>
+  </si>
+  <si>
+    <t>Buy        ($36.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.34)</t>
+  </si>
+  <si>
+    <t>Buy        ($208.03)</t>
+  </si>
+  <si>
+    <t>Aug_21</t>
+  </si>
+  <si>
+    <t>Buy        ($13.62)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($75.14)</t>
+  </si>
+  <si>
+    <t>Sell       ($53.56)</t>
+  </si>
+  <si>
+    <t>Hold       ($58.75)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($101.91)</t>
+  </si>
+  <si>
+    <t>StrongSell ($32.80)</t>
+  </si>
+  <si>
+    <t>Buy        ($38.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.71)</t>
+  </si>
+  <si>
+    <t>Buy        ($208.36)</t>
+  </si>
+  <si>
+    <t>Aug_26</t>
+  </si>
+  <si>
+    <t>Buy        ($13.74)</t>
+  </si>
+  <si>
+    <t>Buy        ($7.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.19)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.22)</t>
+  </si>
+  <si>
+    <t>Sell       ($56.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.26)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($108.07)</t>
+  </si>
+  <si>
+    <t>Buy        ($31.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.47)</t>
+  </si>
+  <si>
+    <t>Buy        ($208.01)</t>
+  </si>
+  <si>
+    <t>Sep_02</t>
+  </si>
+  <si>
+    <t>Buy        ($13.38)</t>
+  </si>
+  <si>
+    <t>Buy        ($7.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($88.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($56.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($59.49)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($113.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($31.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.56)</t>
+  </si>
+  <si>
+    <t>Hold       ($48.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.85)</t>
+  </si>
+  <si>
+    <t>Buy        ($208.72)</t>
+  </si>
+  <si>
+    <t>Sep_11</t>
+  </si>
+  <si>
+    <t>Buy        ($12.70)</t>
+  </si>
+  <si>
+    <t>Buy        ($7.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($92.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.98)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($107.98)</t>
+  </si>
+  <si>
+    <t>Buy        ($27.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.40)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($31.23)</t>
+  </si>
+  <si>
+    <t>Buy        ($215.15)</t>
+  </si>
+  <si>
+    <t>Sep_24</t>
+  </si>
+  <si>
+    <t>Buy        ($11.86)</t>
+  </si>
+  <si>
+    <t>Buy        ($7.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($86.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($42.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($73.07)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($104.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($34.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.20)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($30.60)</t>
+  </si>
+  <si>
+    <t>Buy        ($218.13)</t>
+  </si>
+  <si>
+    <t>Oct_01</t>
+  </si>
+  <si>
+    <t>UN         ($11.69)</t>
+  </si>
+  <si>
+    <t>Buy        ($7.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.56)</t>
+  </si>
+  <si>
+    <t>Hold       ($97.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($76.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($110.92)</t>
+  </si>
+  <si>
+    <t>Buy        ($25.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($34.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.96)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($29.18)</t>
+  </si>
+  <si>
+    <t>Buy        ($214.72)</t>
+  </si>
+  <si>
+    <t>Oct_06</t>
+  </si>
+  <si>
+    <t>Buy        ($11.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($94.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($42.58)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($106.06)</t>
+  </si>
+  <si>
+    <t>Buy        ($23.62)</t>
+  </si>
+  <si>
+    <t>Buy        ($32.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.40)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($26.07)</t>
+  </si>
+  <si>
+    <t>Buy        ($219.33)</t>
+  </si>
+  <si>
+    <t>Oct_22</t>
+  </si>
+  <si>
+    <t>Hold       ($14.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.98)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($75.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($54.58)</t>
+  </si>
+  <si>
+    <t>Sell       ($90.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.43)</t>
+  </si>
+  <si>
+    <t>Sell       ($33.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.39)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($23.94)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($207.11)</t>
+  </si>
+  <si>
+    <t>Nov_04</t>
+  </si>
+  <si>
+    <t>Sell       ($14.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.22)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($77.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.09)</t>
+  </si>
+  <si>
+    <t>Buy        ($57.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($95.98)</t>
+  </si>
+  <si>
+    <t>StrongSell ($24.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.54)</t>
+  </si>
+  <si>
+    <t>Buy        ($42.84)</t>
+  </si>
+  <si>
+    <t>Sell       ($15.27)</t>
+  </si>
+  <si>
+    <t>Nov_11</t>
+  </si>
+  <si>
+    <t>Sell       ($14.42)</t>
+  </si>
+  <si>
+    <t>Buy        ($8.07)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($73.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($96.01)</t>
+  </si>
+  <si>
+    <t>StrongSell ($21.70)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($37.78)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($52.01)</t>
+  </si>
+  <si>
+    <t>Sell       ($14.53)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($219.63)</t>
+  </si>
+  <si>
+    <t>Nov_19</t>
+  </si>
+  <si>
+    <t>Hold       ($14.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.86)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($62.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($42.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($88.88)</t>
+  </si>
+  <si>
+    <t>StrongSell ($21.11)</t>
+  </si>
+  <si>
+    <t>Buy        ($33.08)</t>
+  </si>
+  <si>
+    <t>Buy        ($45.45)</t>
+  </si>
+  <si>
+    <t>Sell       ($13.92)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($217.94)</t>
+  </si>
+  <si>
+    <t>Nov_24</t>
+  </si>
+  <si>
+    <t>Hold       ($14.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.77)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($91.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.27)</t>
+  </si>
+  <si>
+    <t>Buy        ($32.01)</t>
+  </si>
+  <si>
+    <t>Sell       ($13.76)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($207.07)</t>
+  </si>
+  <si>
+    <t>Dec_02</t>
+  </si>
+  <si>
+    <t>Hold       ($14.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.41)</t>
+  </si>
+  <si>
+    <t>StrongSell ($1.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($69.84)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($40.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($95.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.23)</t>
+  </si>
+  <si>
+    <t>Buy        ($34.22)</t>
+  </si>
+  <si>
+    <t>Buy        ($54.04)</t>
+  </si>
+  <si>
+    <t>Sell       ($13.33)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($218.24)</t>
+  </si>
+  <si>
+    <t>Dec_09</t>
+  </si>
+  <si>
+    <t>Sell       ($14.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($60.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($42.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($90.83)</t>
+  </si>
+  <si>
+    <t>Sell       ($20.93)</t>
+  </si>
+  <si>
+    <t>Buy        ($31.69)</t>
+  </si>
+  <si>
+    <t>Buy        ($53.92)</t>
+  </si>
+  <si>
+    <t>Sell       ($12.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($204.88)</t>
+  </si>
+  <si>
+    <t>Dec_16</t>
+  </si>
+  <si>
+    <t>Hold       ($7.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($62.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($86.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.17)</t>
+  </si>
+  <si>
+    <t>Buy        ($30.61)</t>
+  </si>
+  <si>
+    <t>Buy        ($54.34)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($200.00)</t>
+  </si>
+  <si>
+    <t>Dec_30</t>
+  </si>
+  <si>
+    <t>UN         ($14.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($55.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($40.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.16)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($81.32)</t>
+  </si>
+  <si>
+    <t>Sell       ($21.71)</t>
+  </si>
+  <si>
+    <t>Buy        ($30.02)</t>
+  </si>
+  <si>
+    <t>Buy        ($47.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($202.08)</t>
+  </si>
+  <si>
+    <t>Jan_07</t>
+  </si>
+  <si>
+    <t>Hold       ($8.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($60.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($42.18)</t>
+  </si>
+  <si>
+    <t>Buy        ($85.58)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.76)</t>
+  </si>
+  <si>
+    <t>Buy        ($29.91)</t>
+  </si>
+  <si>
+    <t>Buy        ($51.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.09)</t>
+  </si>
+  <si>
+    <t>Buy        ($196.91)</t>
+  </si>
+  <si>
+    <t>Jan_13</t>
+  </si>
+  <si>
+    <t>Hold       ($9.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.20)</t>
+  </si>
+  <si>
+    <t>Buy        ($66.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.57)</t>
+  </si>
+  <si>
+    <t>Buy        ($86.44)</t>
+  </si>
+  <si>
+    <t>Sell       ($22.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.42)</t>
+  </si>
+  <si>
+    <t>Buy        ($52.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.55)</t>
+  </si>
+  <si>
+    <t>Buy        ($196.29)</t>
+  </si>
+  <si>
+    <t>Jan_21</t>
+  </si>
+  <si>
+    <t>Hold       ($9.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.09)</t>
+  </si>
+  <si>
+    <t>Buy        ($72.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($40.98)</t>
+  </si>
+  <si>
+    <t>Buy        ($89.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.26)</t>
+  </si>
+  <si>
+    <t>StrongSell ($25.79)</t>
+  </si>
+  <si>
+    <t>Buy        ($55.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.80)</t>
+  </si>
+  <si>
+    <t>Buy        ($204.48)</t>
+  </si>
+  <si>
+    <t>Jan_27</t>
+  </si>
+  <si>
+    <t>Hold       ($9.33)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.10)</t>
+  </si>
+  <si>
+    <t>Buy        ($77.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.69)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($86.02)</t>
+  </si>
+  <si>
+    <t>Sell       ($23.63)</t>
+  </si>
+  <si>
+    <t>StrongSell ($25.51)</t>
+  </si>
+  <si>
+    <t>Buy        ($55.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.26)</t>
+  </si>
+  <si>
+    <t>Buy        ($202.75)</t>
+  </si>
+  <si>
+    <t>Jan_31</t>
+  </si>
+  <si>
+    <t>Hold       ($9.74)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.15)</t>
+  </si>
+  <si>
+    <t>Buy        ($71.35)</t>
+  </si>
+  <si>
+    <t>Buy        ($51.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.95)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($89.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.85)</t>
+  </si>
+  <si>
+    <t>Sell       ($26.30)</t>
+  </si>
+  <si>
+    <t>Buy        ($54.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.50)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($205.54)</t>
+  </si>
+  <si>
+    <t>Feb_03</t>
+  </si>
+  <si>
+    <t>UN         ($29.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.83)</t>
+  </si>
+  <si>
+    <t>Buy        ($29.83)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($29.83)</t>
+  </si>
+  <si>
+    <t>Sell       ($29.83)</t>
+  </si>
+  <si>
+    <t>Feb_07</t>
+  </si>
+  <si>
+    <t>Buy        ($8.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.30)</t>
+  </si>
+  <si>
+    <t>Buy        ($71.70)</t>
+  </si>
+  <si>
+    <t>Buy        ($51.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.23)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($97.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.77)</t>
+  </si>
+  <si>
+    <t>Sell       ($25.61)</t>
+  </si>
+  <si>
+    <t>Buy        ($51.43)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.56)</t>
+  </si>
+  <si>
+    <t>Buy        ($201.06)</t>
+  </si>
+  <si>
+    <t>Feb_10</t>
+  </si>
+  <si>
+    <t>Buy        ($9.49)</t>
+  </si>
+  <si>
+    <t>Buy        ($73.49)</t>
+  </si>
+  <si>
+    <t>Buy        ($53.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($48.27)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($104.17)</t>
+  </si>
+  <si>
+    <t>Sell       ($23.99)</t>
+  </si>
+  <si>
+    <t>Sell       ($25.14)</t>
+  </si>
+  <si>
+    <t>Buy        ($53.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.77)</t>
+  </si>
+  <si>
+    <t>Buy        ($200.92)</t>
+  </si>
+  <si>
+    <t>Feb_13</t>
+  </si>
+  <si>
+    <t>Buy        ($9.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.44)</t>
+  </si>
+  <si>
+    <t>Buy        ($75.63)</t>
+  </si>
+  <si>
+    <t>Buy        ($53.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($50.20)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($115.09)</t>
+  </si>
+  <si>
+    <t>Sell       ($24.61)</t>
+  </si>
+  <si>
+    <t>Sell       ($25.24)</t>
+  </si>
+  <si>
+    <t>Buy        ($55.04)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.03)</t>
+  </si>
+  <si>
+    <t>Buy        ($205.80)</t>
+  </si>
+  <si>
+    <t>Feb_17</t>
+  </si>
+  <si>
+    <t>Buy        ($9.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.47)</t>
+  </si>
+  <si>
+    <t>Buy        ($75.64)</t>
+  </si>
+  <si>
+    <t>Buy        ($53.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.08)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($119.39)</t>
+  </si>
+  <si>
+    <t>Sell       ($23.96)</t>
+  </si>
+  <si>
+    <t>Sell       ($24.88)</t>
+  </si>
+  <si>
+    <t>Buy        ($54.66)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.00)</t>
+  </si>
+  <si>
+    <t>Buy        ($205.29)</t>
+  </si>
+  <si>
+    <t>Feb_24</t>
+  </si>
+  <si>
+    <t>Buy        ($8.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.46)</t>
+  </si>
+  <si>
+    <t>Buy        ($76.08)</t>
+  </si>
+  <si>
+    <t>Buy        ($53.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.47)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($120.50)</t>
+  </si>
+  <si>
+    <t>Sell       ($25.95)</t>
+  </si>
+  <si>
+    <t>Sell       ($24.06)</t>
+  </si>
+  <si>
+    <t>Buy        ($56.67)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.74)</t>
+  </si>
+  <si>
+    <t>Buy        ($201.91)</t>
+  </si>
+  <si>
+    <t>Feb_28</t>
+  </si>
+  <si>
+    <t>Buy        ($8.98)</t>
+  </si>
+  <si>
+    <t>Buy        ($81.24)</t>
+  </si>
+  <si>
+    <t>Buy        ($50.09)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($125.06)</t>
+  </si>
+  <si>
+    <t>Sell       ($27.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($71.27)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.02)</t>
+  </si>
+  <si>
+    <t>Buy        ($201.30)</t>
+  </si>
+  <si>
+    <t>Mar_03</t>
+  </si>
+  <si>
+    <t>Buy        ($9.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.53)</t>
+  </si>
+  <si>
+    <t>Buy        ($77.46)</t>
+  </si>
+  <si>
+    <t>Buy        ($33.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($69.08)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($129.56)</t>
+  </si>
+  <si>
+    <t>StrongSell ($28.73)</t>
+  </si>
+  <si>
+    <t>StrongSell ($24.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($72.77)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.48)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($203.13)</t>
+  </si>
+  <si>
+    <t>Mar_06</t>
+  </si>
+  <si>
+    <t>Buy        ($9.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.43)</t>
+  </si>
+  <si>
+    <t>Buy        ($75.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($34.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($71.89)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($124.74)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.03)</t>
+  </si>
+  <si>
+    <t>StrongSell ($24.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.04)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.24)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($200.67)</t>
+  </si>
+  <si>
+    <t>Mar_10</t>
+  </si>
+  <si>
+    <t>Buy        ($8.83)</t>
+  </si>
+  <si>
+    <t>Buy        ($74.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($34.48)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($122.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.05)</t>
+  </si>
+  <si>
+    <t>StrongSell ($23.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.77)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.54)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($198.70)</t>
   </si>
 </sst>
 </file>
@@ -882,7 +2451,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="143">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,6 +2551,616 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -997,7 +3176,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="597">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -1067,8 +3246,522 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1077,7 +3770,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1416,88 +4111,260 @@
     <col min="14" max="14" customWidth="true" width="14.1640625" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="14.1640625" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="68" max="68" customWidth="true" width="13.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS1" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="AT1" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="AU1" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="AV1" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="AW1" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="AX1" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="AY1" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="BA1" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="BB1" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="BC1" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="BD1" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="BE1" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="BG1" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="BI1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="BK1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="BL1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="BM1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="BN1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="BO1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="BP1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1505,76 +4372,205 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="585" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" s="573" t="s">
+        <v>624</v>
+      </c>
+      <c r="D2" s="561" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2" s="549" t="s">
+        <v>624</v>
+      </c>
+      <c r="F2" s="537" t="s">
+        <v>624</v>
+      </c>
+      <c r="G2" s="525" t="s">
+        <v>624</v>
+      </c>
+      <c r="H2" s="513" t="s">
+        <v>624</v>
+      </c>
+      <c r="I2" s="501" t="s">
+        <v>624</v>
+      </c>
+      <c r="J2" s="489" t="s">
+        <v>624</v>
+      </c>
+      <c r="K2" s="477" t="s">
+        <v>697</v>
+      </c>
+      <c r="L2" s="465" t="s">
+        <v>624</v>
+      </c>
+      <c r="M2" s="453" t="s">
+        <v>624</v>
+      </c>
+      <c r="N2" s="441" t="s">
+        <v>624</v>
+      </c>
+      <c r="O2" s="429" t="s">
+        <v>624</v>
+      </c>
+      <c r="P2" s="417" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q2" s="405" t="s">
+        <v>624</v>
+      </c>
+      <c r="R2" s="393" t="s">
+        <v>586</v>
+      </c>
+      <c r="S2" s="381" t="s">
+        <v>599</v>
+      </c>
+      <c r="T2" s="369" t="s">
+        <v>586</v>
+      </c>
+      <c r="U2" s="357" t="s">
+        <v>575</v>
+      </c>
+      <c r="V2" s="345" t="s">
+        <v>562</v>
+      </c>
+      <c r="W2" s="333" t="s">
+        <v>549</v>
+      </c>
+      <c r="X2" s="321" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y2" s="309" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z2" s="297" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA2" s="285" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB2" s="273" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC2" s="261" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD2" s="249" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE2" s="237" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF2" s="225" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG2" s="213" t="s">
+        <v>421</v>
+      </c>
+      <c r="AH2" s="201" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI2" s="189" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ2" s="177" t="s">
+        <v>384</v>
+      </c>
+      <c r="AK2" s="165" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL2" s="153" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM2" s="141" t="s">
+        <v>347</v>
+      </c>
+      <c r="AN2" s="129" t="s">
+        <v>334</v>
+      </c>
+      <c r="AO2" s="117" t="s">
+        <v>321</v>
+      </c>
+      <c r="AP2" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="AQ2" s="93" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR2" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="AS2" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="AT2" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="AU2" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="AV2" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="AW2" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="AY2" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="BA2" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="BB2" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="BC2" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="BD2" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="BE2" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="BF2" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="BG2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="BH2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="BI2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="BJ2" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="BL2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="BM2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="BN2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="BO2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="BP2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1582,76 +4578,205 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="586" t="s">
+        <v>796</v>
+      </c>
+      <c r="C3" s="574" t="s">
+        <v>784</v>
+      </c>
+      <c r="D3" s="562" t="s">
+        <v>772</v>
+      </c>
+      <c r="E3" s="550" t="s">
+        <v>762</v>
+      </c>
+      <c r="F3" s="538" t="s">
+        <v>750</v>
+      </c>
+      <c r="G3" s="526" t="s">
+        <v>738</v>
+      </c>
+      <c r="H3" s="514" t="s">
+        <v>726</v>
+      </c>
+      <c r="I3" s="502" t="s">
+        <v>715</v>
+      </c>
+      <c r="J3" s="490" t="s">
+        <v>703</v>
+      </c>
+      <c r="K3" s="478" t="s">
+        <v>698</v>
+      </c>
+      <c r="L3" s="466" t="s">
+        <v>685</v>
+      </c>
+      <c r="M3" s="454" t="s">
+        <v>673</v>
+      </c>
+      <c r="N3" s="442" t="s">
+        <v>661</v>
+      </c>
+      <c r="O3" s="430" t="s">
+        <v>649</v>
+      </c>
+      <c r="P3" s="418" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q3" s="406" t="s">
+        <v>625</v>
+      </c>
+      <c r="R3" s="394" t="s">
+        <v>612</v>
+      </c>
+      <c r="S3" s="382" t="s">
+        <v>600</v>
+      </c>
+      <c r="T3" s="370" t="s">
+        <v>587</v>
+      </c>
+      <c r="U3" s="358" t="s">
+        <v>576</v>
+      </c>
+      <c r="V3" s="346" t="s">
+        <v>563</v>
+      </c>
+      <c r="W3" s="334" t="s">
+        <v>550</v>
+      </c>
+      <c r="X3" s="322" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y3" s="310" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z3" s="298" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA3" s="286" t="s">
+        <v>499</v>
+      </c>
+      <c r="AB3" s="274" t="s">
+        <v>486</v>
+      </c>
+      <c r="AC3" s="262" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD3" s="250" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE3" s="238" t="s">
+        <v>448</v>
+      </c>
+      <c r="AF3" s="226" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG3" s="214" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH3" s="202" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI3" s="190" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ3" s="178" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK3" s="166" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL3" s="154" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM3" s="142" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN3" s="130" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO3" s="118" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP3" s="106" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ3" s="94" t="s">
+        <v>297</v>
+      </c>
+      <c r="AR3" s="82" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS3" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="AT3" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="AU3" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="AV3" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="AW3" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="AX3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="AY3" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="AZ3" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="BA3" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="BB3" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="BC3" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="BD3" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="BE3" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="BF3" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="BG3" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="BH3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="BI3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="BJ3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="BK3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="BL3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="BM3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="BN3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="BO3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="BP3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1659,76 +4784,205 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="587" t="s">
+        <v>727</v>
+      </c>
+      <c r="C4" s="575" t="s">
+        <v>785</v>
+      </c>
+      <c r="D4" s="563" t="s">
+        <v>773</v>
+      </c>
+      <c r="E4" s="551" t="s">
+        <v>751</v>
+      </c>
+      <c r="F4" s="539" t="s">
+        <v>751</v>
+      </c>
+      <c r="G4" s="527" t="s">
+        <v>739</v>
+      </c>
+      <c r="H4" s="515" t="s">
+        <v>727</v>
+      </c>
+      <c r="I4" s="503" t="s">
+        <v>704</v>
+      </c>
+      <c r="J4" s="491" t="s">
+        <v>704</v>
+      </c>
+      <c r="K4" s="479" t="s">
+        <v>698</v>
+      </c>
+      <c r="L4" s="467" t="s">
+        <v>686</v>
+      </c>
+      <c r="M4" s="455" t="s">
+        <v>674</v>
+      </c>
+      <c r="N4" s="443" t="s">
+        <v>662</v>
+      </c>
+      <c r="O4" s="431" t="s">
+        <v>650</v>
+      </c>
+      <c r="P4" s="419" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q4" s="407" t="s">
+        <v>626</v>
+      </c>
+      <c r="R4" s="395" t="s">
+        <v>613</v>
+      </c>
+      <c r="S4" s="383" t="s">
+        <v>601</v>
+      </c>
+      <c r="T4" s="371" t="s">
+        <v>588</v>
+      </c>
+      <c r="U4" s="359" t="s">
+        <v>577</v>
+      </c>
+      <c r="V4" s="347" t="s">
+        <v>564</v>
+      </c>
+      <c r="W4" s="335" t="s">
+        <v>551</v>
+      </c>
+      <c r="X4" s="323" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y4" s="311" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z4" s="299" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA4" s="287" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB4" s="275" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC4" s="263" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="251" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE4" s="239" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF4" s="227" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG4" s="215" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH4" s="203" t="s">
+        <v>411</v>
+      </c>
+      <c r="AI4" s="191" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ4" s="179" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK4" s="167" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL4" s="155" t="s">
+        <v>361</v>
+      </c>
+      <c r="AM4" s="143" t="s">
+        <v>349</v>
+      </c>
+      <c r="AN4" s="131" t="s">
+        <v>336</v>
+      </c>
+      <c r="AO4" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="AP4" s="107" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ4" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR4" s="83" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS4" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="AT4" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="AU4" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="AV4" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="AW4" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="AX4" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="AY4" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="AZ4" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="BA4" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="BB4" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="BC4" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="BD4" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="BE4" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="BF4" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="BG4" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="BH4" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="BI4" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="BJ4" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="BK4" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="BL4" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="BM4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="BN4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="BO4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="BP4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1736,76 +4990,205 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="588" t="s">
+        <v>797</v>
+      </c>
+      <c r="C5" s="576" t="s">
+        <v>786</v>
+      </c>
+      <c r="D5" s="564" t="s">
+        <v>774</v>
+      </c>
+      <c r="E5" s="552" t="s">
+        <v>763</v>
+      </c>
+      <c r="F5" s="540" t="s">
+        <v>752</v>
+      </c>
+      <c r="G5" s="528" t="s">
+        <v>740</v>
+      </c>
+      <c r="H5" s="516" t="s">
+        <v>728</v>
+      </c>
+      <c r="I5" s="504" t="s">
+        <v>716</v>
+      </c>
+      <c r="J5" s="492" t="s">
+        <v>705</v>
+      </c>
+      <c r="K5" s="480" t="s">
+        <v>699</v>
+      </c>
+      <c r="L5" s="468" t="s">
+        <v>687</v>
+      </c>
+      <c r="M5" s="456" t="s">
+        <v>675</v>
+      </c>
+      <c r="N5" s="444" t="s">
+        <v>663</v>
+      </c>
+      <c r="O5" s="432" t="s">
+        <v>651</v>
+      </c>
+      <c r="P5" s="420" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q5" s="408" t="s">
+        <v>627</v>
+      </c>
+      <c r="R5" s="396" t="s">
+        <v>614</v>
+      </c>
+      <c r="S5" s="384" t="s">
+        <v>602</v>
+      </c>
+      <c r="T5" s="372" t="s">
+        <v>589</v>
+      </c>
+      <c r="U5" s="360" t="s">
+        <v>578</v>
+      </c>
+      <c r="V5" s="348" t="s">
+        <v>565</v>
+      </c>
+      <c r="W5" s="336" t="s">
+        <v>552</v>
+      </c>
+      <c r="X5" s="324" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y5" s="312" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z5" s="300" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA5" s="288" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB5" s="276" t="s">
+        <v>488</v>
+      </c>
+      <c r="AC5" s="264" t="s">
+        <v>475</v>
+      </c>
+      <c r="AD5" s="252" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE5" s="240" t="s">
+        <v>450</v>
+      </c>
+      <c r="AF5" s="228" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG5" s="216" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH5" s="204" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI5" s="192" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ5" s="180" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK5" s="168" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL5" s="156" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM5" s="144" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN5" s="132" t="s">
+        <v>337</v>
+      </c>
+      <c r="AO5" s="120" t="s">
+        <v>324</v>
+      </c>
+      <c r="AP5" s="108" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ5" s="96" t="s">
+        <v>299</v>
+      </c>
+      <c r="AR5" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS5" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="AT5" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="AU5" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="AV5" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="AW5" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="AX5" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="AY5" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="AZ5" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="BA5" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="BB5" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="BC5" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="BD5" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="BE5" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="BF5" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="BG5" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="BH5" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="BI5" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="BJ5" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="BK5" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="BL5" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="BM5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="BN5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="BO5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="BP5" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1813,76 +5196,205 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="589" t="s">
+        <v>798</v>
+      </c>
+      <c r="C6" s="577" t="s">
+        <v>787</v>
+      </c>
+      <c r="D6" s="565" t="s">
+        <v>775</v>
+      </c>
+      <c r="E6" s="553" t="s">
+        <v>764</v>
+      </c>
+      <c r="F6" s="541" t="s">
+        <v>753</v>
+      </c>
+      <c r="G6" s="529" t="s">
+        <v>741</v>
+      </c>
+      <c r="H6" s="517" t="s">
+        <v>729</v>
+      </c>
+      <c r="I6" s="505" t="s">
+        <v>717</v>
+      </c>
+      <c r="J6" s="493" t="s">
+        <v>706</v>
+      </c>
+      <c r="K6" s="481" t="s">
+        <v>699</v>
+      </c>
+      <c r="L6" s="469" t="s">
+        <v>688</v>
+      </c>
+      <c r="M6" s="457" t="s">
+        <v>676</v>
+      </c>
+      <c r="N6" s="445" t="s">
+        <v>664</v>
+      </c>
+      <c r="O6" s="433" t="s">
+        <v>652</v>
+      </c>
+      <c r="P6" s="421" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q6" s="409" t="s">
+        <v>628</v>
+      </c>
+      <c r="R6" s="397" t="s">
+        <v>615</v>
+      </c>
+      <c r="S6" s="385" t="s">
+        <v>603</v>
+      </c>
+      <c r="T6" s="373" t="s">
+        <v>590</v>
+      </c>
+      <c r="U6" s="361" t="s">
+        <v>579</v>
+      </c>
+      <c r="V6" s="349" t="s">
+        <v>566</v>
+      </c>
+      <c r="W6" s="337" t="s">
+        <v>553</v>
+      </c>
+      <c r="X6" s="325" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y6" s="313" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z6" s="301" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA6" s="289" t="s">
+        <v>502</v>
+      </c>
+      <c r="AB6" s="277" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC6" s="265" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD6" s="253" t="s">
+        <v>464</v>
+      </c>
+      <c r="AE6" s="241" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF6" s="229" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG6" s="217" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH6" s="205" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI6" s="193" t="s">
+        <v>400</v>
+      </c>
+      <c r="AJ6" s="181" t="s">
+        <v>387</v>
+      </c>
+      <c r="AK6" s="169" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL6" s="157" t="s">
+        <v>363</v>
+      </c>
+      <c r="AM6" s="145" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN6" s="133" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO6" s="121" t="s">
+        <v>325</v>
+      </c>
+      <c r="AP6" s="109" t="s">
+        <v>313</v>
+      </c>
+      <c r="AQ6" s="97" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR6" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS6" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="AT6" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="AU6" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="AV6" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="AW6" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="AX6" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="AY6" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="AZ6" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="BA6" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="BB6" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="BC6" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="BD6" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="BE6" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="BF6" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="BG6" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="BH6" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="BI6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="BJ6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="BK6" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="BL6" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="BM6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="BN6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X6" s="0" t="s">
+      <c r="BO6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="BP6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1890,76 +5402,205 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="590" t="s">
+        <v>768</v>
+      </c>
+      <c r="C7" s="578" t="s">
+        <v>788</v>
+      </c>
+      <c r="D7" s="566" t="s">
+        <v>776</v>
+      </c>
+      <c r="E7" s="554" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="542" t="s">
+        <v>754</v>
+      </c>
+      <c r="G7" s="530" t="s">
+        <v>742</v>
+      </c>
+      <c r="H7" s="518" t="s">
+        <v>730</v>
+      </c>
+      <c r="I7" s="506" t="s">
+        <v>718</v>
+      </c>
+      <c r="J7" s="494" t="s">
+        <v>707</v>
+      </c>
+      <c r="K7" s="482" t="s">
+        <v>698</v>
+      </c>
+      <c r="L7" s="470" t="s">
+        <v>689</v>
+      </c>
+      <c r="M7" s="458" t="s">
+        <v>677</v>
+      </c>
+      <c r="N7" s="446" t="s">
+        <v>665</v>
+      </c>
+      <c r="O7" s="434" t="s">
+        <v>653</v>
+      </c>
+      <c r="P7" s="422" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q7" s="410" t="s">
+        <v>629</v>
+      </c>
+      <c r="R7" s="398" t="s">
+        <v>616</v>
+      </c>
+      <c r="S7" s="386" t="s">
+        <v>604</v>
+      </c>
+      <c r="T7" s="374" t="s">
+        <v>591</v>
+      </c>
+      <c r="U7" s="362" t="s">
+        <v>160</v>
+      </c>
+      <c r="V7" s="350" t="s">
+        <v>567</v>
+      </c>
+      <c r="W7" s="338" t="s">
+        <v>554</v>
+      </c>
+      <c r="X7" s="326" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y7" s="314" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z7" s="302" t="s">
+        <v>516</v>
+      </c>
+      <c r="AA7" s="290" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB7" s="278" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC7" s="266" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD7" s="254" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE7" s="242" t="s">
+        <v>452</v>
+      </c>
+      <c r="AF7" s="230" t="s">
+        <v>439</v>
+      </c>
+      <c r="AG7" s="218" t="s">
+        <v>426</v>
+      </c>
+      <c r="AH7" s="206" t="s">
+        <v>413</v>
+      </c>
+      <c r="AI7" s="194" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ7" s="182" t="s">
+        <v>388</v>
+      </c>
+      <c r="AK7" s="170" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL7" s="158" t="s">
+        <v>364</v>
+      </c>
+      <c r="AM7" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN7" s="134" t="s">
+        <v>339</v>
+      </c>
+      <c r="AO7" s="122" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP7" s="110" t="s">
+        <v>314</v>
+      </c>
+      <c r="AQ7" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR7" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="AS7" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="AT7" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="AU7" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="AV7" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="AW7" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="AX7" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="AY7" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="AZ7" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="BA7" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="BB7" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="BC7" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="BD7" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="BE7" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="BF7" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="BG7" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="BH7" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="BI7" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="BJ7" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="BK7" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="BL7" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="BM7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="BN7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="0" t="s">
+      <c r="BO7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="BP7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1967,76 +5608,205 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="591" t="s">
+        <v>799</v>
+      </c>
+      <c r="C8" s="579" t="s">
+        <v>789</v>
+      </c>
+      <c r="D8" s="567" t="s">
+        <v>777</v>
+      </c>
+      <c r="E8" s="555" t="s">
+        <v>765</v>
+      </c>
+      <c r="F8" s="543" t="s">
+        <v>755</v>
+      </c>
+      <c r="G8" s="531" t="s">
+        <v>743</v>
+      </c>
+      <c r="H8" s="519" t="s">
+        <v>731</v>
+      </c>
+      <c r="I8" s="507" t="s">
+        <v>719</v>
+      </c>
+      <c r="J8" s="495" t="s">
+        <v>708</v>
+      </c>
+      <c r="K8" s="483" t="s">
+        <v>700</v>
+      </c>
+      <c r="L8" s="471" t="s">
+        <v>690</v>
+      </c>
+      <c r="M8" s="459" t="s">
+        <v>678</v>
+      </c>
+      <c r="N8" s="447" t="s">
+        <v>666</v>
+      </c>
+      <c r="O8" s="435" t="s">
+        <v>654</v>
+      </c>
+      <c r="P8" s="423" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q8" s="411" t="s">
+        <v>630</v>
+      </c>
+      <c r="R8" s="399" t="s">
+        <v>617</v>
+      </c>
+      <c r="S8" s="387" t="s">
+        <v>605</v>
+      </c>
+      <c r="T8" s="375" t="s">
+        <v>592</v>
+      </c>
+      <c r="U8" s="363" t="s">
+        <v>580</v>
+      </c>
+      <c r="V8" s="351" t="s">
+        <v>568</v>
+      </c>
+      <c r="W8" s="339" t="s">
+        <v>555</v>
+      </c>
+      <c r="X8" s="327" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y8" s="315" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z8" s="303" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA8" s="291" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB8" s="279" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC8" s="267" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD8" s="255" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE8" s="243" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF8" s="231" t="s">
+        <v>440</v>
+      </c>
+      <c r="AG8" s="219" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH8" s="207" t="s">
+        <v>414</v>
+      </c>
+      <c r="AI8" s="195" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ8" s="183" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK8" s="171" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL8" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM8" s="147" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN8" s="135" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO8" s="123" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP8" s="111" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ8" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR8" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS8" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="AT8" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="AU8" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="AV8" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="AW8" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="AX8" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="AY8" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="AZ8" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="BA8" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="BB8" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="BC8" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="BD8" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="BE8" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="BF8" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="BG8" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="BH8" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="BI8" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="BJ8" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="T8" s="0" t="s">
+      <c r="BK8" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="BL8" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="BM8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="W8" s="0" t="s">
+      <c r="BN8" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="X8" s="0" t="s">
+      <c r="BO8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="0" t="s">
+      <c r="BP8" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2044,76 +5814,205 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="592" t="s">
+        <v>800</v>
+      </c>
+      <c r="C9" s="580" t="s">
+        <v>790</v>
+      </c>
+      <c r="D9" s="568" t="s">
+        <v>778</v>
+      </c>
+      <c r="E9" s="556" t="s">
+        <v>766</v>
+      </c>
+      <c r="F9" s="544" t="s">
+        <v>756</v>
+      </c>
+      <c r="G9" s="532" t="s">
+        <v>744</v>
+      </c>
+      <c r="H9" s="520" t="s">
+        <v>732</v>
+      </c>
+      <c r="I9" s="508" t="s">
+        <v>720</v>
+      </c>
+      <c r="J9" s="496" t="s">
+        <v>709</v>
+      </c>
+      <c r="K9" s="484" t="s">
+        <v>701</v>
+      </c>
+      <c r="L9" s="472" t="s">
+        <v>691</v>
+      </c>
+      <c r="M9" s="460" t="s">
+        <v>679</v>
+      </c>
+      <c r="N9" s="448" t="s">
+        <v>667</v>
+      </c>
+      <c r="O9" s="436" t="s">
+        <v>655</v>
+      </c>
+      <c r="P9" s="424" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q9" s="412" t="s">
+        <v>631</v>
+      </c>
+      <c r="R9" s="400" t="s">
+        <v>618</v>
+      </c>
+      <c r="S9" s="388" t="s">
+        <v>606</v>
+      </c>
+      <c r="T9" s="376" t="s">
+        <v>593</v>
+      </c>
+      <c r="U9" s="364" t="s">
+        <v>581</v>
+      </c>
+      <c r="V9" s="352" t="s">
+        <v>569</v>
+      </c>
+      <c r="W9" s="340" t="s">
+        <v>556</v>
+      </c>
+      <c r="X9" s="328" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y9" s="316" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z9" s="304" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA9" s="292" t="s">
+        <v>505</v>
+      </c>
+      <c r="AB9" s="280" t="s">
+        <v>492</v>
+      </c>
+      <c r="AC9" s="268" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD9" s="256" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE9" s="244" t="s">
+        <v>454</v>
+      </c>
+      <c r="AF9" s="232" t="s">
+        <v>441</v>
+      </c>
+      <c r="AG9" s="220" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH9" s="208" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI9" s="196" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ9" s="184" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK9" s="172" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL9" s="160" t="s">
+        <v>366</v>
+      </c>
+      <c r="AM9" s="148" t="s">
+        <v>354</v>
+      </c>
+      <c r="AN9" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO9" s="124" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP9" s="112" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ9" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR9" s="88" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS9" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="AT9" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="AU9" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="AV9" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="AW9" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="AX9" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="AY9" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="AZ9" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="BA9" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="BB9" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="BC9" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="BD9" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="BE9" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="BF9" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="BG9" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="BH9" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="BI9" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="BJ9" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="BK9" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="BL9" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="BM9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="BN9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="X9" s="0" t="s">
+      <c r="BO9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Y9" s="0" t="s">
+      <c r="BP9" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2121,76 +6020,205 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="593" t="s">
+        <v>801</v>
+      </c>
+      <c r="C10" s="581" t="s">
+        <v>791</v>
+      </c>
+      <c r="D10" s="569" t="s">
+        <v>779</v>
+      </c>
+      <c r="E10" s="557" t="s">
+        <v>767</v>
+      </c>
+      <c r="F10" s="545" t="s">
+        <v>757</v>
+      </c>
+      <c r="G10" s="533" t="s">
+        <v>745</v>
+      </c>
+      <c r="H10" s="521" t="s">
+        <v>733</v>
+      </c>
+      <c r="I10" s="509" t="s">
+        <v>721</v>
+      </c>
+      <c r="J10" s="497" t="s">
+        <v>710</v>
+      </c>
+      <c r="K10" s="485" t="s">
+        <v>701</v>
+      </c>
+      <c r="L10" s="473" t="s">
+        <v>692</v>
+      </c>
+      <c r="M10" s="461" t="s">
+        <v>680</v>
+      </c>
+      <c r="N10" s="449" t="s">
+        <v>668</v>
+      </c>
+      <c r="O10" s="437" t="s">
+        <v>656</v>
+      </c>
+      <c r="P10" s="425" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q10" s="413" t="s">
+        <v>632</v>
+      </c>
+      <c r="R10" s="401" t="s">
+        <v>619</v>
+      </c>
+      <c r="S10" s="389" t="s">
+        <v>607</v>
+      </c>
+      <c r="T10" s="377" t="s">
+        <v>594</v>
+      </c>
+      <c r="U10" s="365" t="s">
+        <v>582</v>
+      </c>
+      <c r="V10" s="353" t="s">
+        <v>570</v>
+      </c>
+      <c r="W10" s="341" t="s">
+        <v>557</v>
+      </c>
+      <c r="X10" s="329" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y10" s="317" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z10" s="305" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA10" s="293" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB10" s="281" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC10" s="269" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD10" s="257" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE10" s="245" t="s">
+        <v>455</v>
+      </c>
+      <c r="AF10" s="233" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG10" s="221" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH10" s="209" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI10" s="197" t="s">
+        <v>404</v>
+      </c>
+      <c r="AJ10" s="185" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK10" s="173" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL10" s="161" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM10" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="AN10" s="137" t="s">
+        <v>342</v>
+      </c>
+      <c r="AO10" s="125" t="s">
+        <v>329</v>
+      </c>
+      <c r="AP10" s="113" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ10" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR10" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS10" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="AT10" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="AU10" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="AV10" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="AW10" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="AX10" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="AY10" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="AZ10" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="BA10" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="BB10" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="BC10" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="BD10" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="BE10" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="BF10" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="BG10" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="BH10" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="BI10" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="BJ10" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="BK10" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="BL10" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="BM10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="W10" s="0" t="s">
+      <c r="BN10" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="X10" s="0" t="s">
+      <c r="BO10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Y10" s="0" t="s">
+      <c r="BP10" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2198,76 +6226,205 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="594" t="s">
+        <v>802</v>
+      </c>
+      <c r="C11" s="582" t="s">
+        <v>792</v>
+      </c>
+      <c r="D11" s="570" t="s">
+        <v>780</v>
+      </c>
+      <c r="E11" s="558" t="s">
+        <v>768</v>
+      </c>
+      <c r="F11" s="546" t="s">
+        <v>758</v>
+      </c>
+      <c r="G11" s="534" t="s">
+        <v>746</v>
+      </c>
+      <c r="H11" s="522" t="s">
+        <v>734</v>
+      </c>
+      <c r="I11" s="510" t="s">
+        <v>722</v>
+      </c>
+      <c r="J11" s="498" t="s">
+        <v>711</v>
+      </c>
+      <c r="K11" s="486" t="s">
+        <v>699</v>
+      </c>
+      <c r="L11" s="474" t="s">
+        <v>693</v>
+      </c>
+      <c r="M11" s="462" t="s">
+        <v>681</v>
+      </c>
+      <c r="N11" s="450" t="s">
+        <v>669</v>
+      </c>
+      <c r="O11" s="438" t="s">
+        <v>657</v>
+      </c>
+      <c r="P11" s="426" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q11" s="414" t="s">
+        <v>633</v>
+      </c>
+      <c r="R11" s="402" t="s">
+        <v>620</v>
+      </c>
+      <c r="S11" s="390" t="s">
+        <v>608</v>
+      </c>
+      <c r="T11" s="378" t="s">
+        <v>595</v>
+      </c>
+      <c r="U11" s="366" t="s">
+        <v>213</v>
+      </c>
+      <c r="V11" s="354" t="s">
+        <v>571</v>
+      </c>
+      <c r="W11" s="342" t="s">
+        <v>558</v>
+      </c>
+      <c r="X11" s="330" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y11" s="318" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z11" s="306" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA11" s="294" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB11" s="282" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC11" s="270" t="s">
+        <v>481</v>
+      </c>
+      <c r="AD11" s="258" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE11" s="246" t="s">
+        <v>456</v>
+      </c>
+      <c r="AF11" s="234" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG11" s="222" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH11" s="210" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI11" s="198" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ11" s="186" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK11" s="174" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL11" s="162" t="s">
+        <v>368</v>
+      </c>
+      <c r="AM11" s="150" t="s">
+        <v>356</v>
+      </c>
+      <c r="AN11" s="138" t="s">
+        <v>343</v>
+      </c>
+      <c r="AO11" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="AP11" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ11" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR11" s="90" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS11" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="AT11" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="AU11" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="AV11" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="AW11" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="AX11" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="AY11" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="AZ11" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="BA11" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="BB11" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="BC11" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="BD11" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="BE11" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="BF11" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="BG11" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="BH11" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="BI11" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="BJ11" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="BK11" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="BL11" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="BM11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="BN11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="BO11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y11" s="0" t="s">
+      <c r="BP11" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2275,76 +6432,205 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="595" t="s">
+        <v>803</v>
+      </c>
+      <c r="C12" s="583" t="s">
+        <v>793</v>
+      </c>
+      <c r="D12" s="571" t="s">
+        <v>781</v>
+      </c>
+      <c r="E12" s="559" t="s">
+        <v>769</v>
+      </c>
+      <c r="F12" s="547" t="s">
+        <v>759</v>
+      </c>
+      <c r="G12" s="535" t="s">
+        <v>747</v>
+      </c>
+      <c r="H12" s="523" t="s">
+        <v>735</v>
+      </c>
+      <c r="I12" s="511" t="s">
+        <v>723</v>
+      </c>
+      <c r="J12" s="499" t="s">
+        <v>712</v>
+      </c>
+      <c r="K12" s="487" t="s">
+        <v>698</v>
+      </c>
+      <c r="L12" s="475" t="s">
+        <v>694</v>
+      </c>
+      <c r="M12" s="463" t="s">
+        <v>682</v>
+      </c>
+      <c r="N12" s="451" t="s">
+        <v>670</v>
+      </c>
+      <c r="O12" s="439" t="s">
+        <v>658</v>
+      </c>
+      <c r="P12" s="427" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q12" s="415" t="s">
+        <v>634</v>
+      </c>
+      <c r="R12" s="403" t="s">
+        <v>621</v>
+      </c>
+      <c r="S12" s="391" t="s">
+        <v>609</v>
+      </c>
+      <c r="T12" s="379" t="s">
+        <v>596</v>
+      </c>
+      <c r="U12" s="367" t="s">
+        <v>583</v>
+      </c>
+      <c r="V12" s="355" t="s">
+        <v>572</v>
+      </c>
+      <c r="W12" s="343" t="s">
+        <v>559</v>
+      </c>
+      <c r="X12" s="331" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y12" s="319" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z12" s="307" t="s">
+        <v>521</v>
+      </c>
+      <c r="AA12" s="295" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB12" s="283" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC12" s="271" t="s">
+        <v>482</v>
+      </c>
+      <c r="AD12" s="259" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE12" s="247" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF12" s="235" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG12" s="223" t="s">
+        <v>431</v>
+      </c>
+      <c r="AH12" s="211" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI12" s="199" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ12" s="187" t="s">
+        <v>393</v>
+      </c>
+      <c r="AK12" s="175" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL12" s="163" t="s">
+        <v>369</v>
+      </c>
+      <c r="AM12" s="151" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN12" s="139" t="s">
+        <v>344</v>
+      </c>
+      <c r="AO12" s="127" t="s">
+        <v>331</v>
+      </c>
+      <c r="AP12" s="115" t="s">
+        <v>318</v>
+      </c>
+      <c r="AQ12" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR12" s="91" t="s">
+        <v>293</v>
+      </c>
+      <c r="AS12" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="AT12" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="AU12" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="AV12" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="AW12" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="AX12" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="AY12" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="AZ12" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="BA12" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="BB12" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="BC12" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="BD12" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="BE12" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="BF12" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="BG12" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="BH12" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="BI12" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="BJ12" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="BK12" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="BL12" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="BM12" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="W12" s="0" t="s">
+      <c r="BN12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="X12" s="0" t="s">
+      <c r="BO12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Y12" s="0" t="s">
+      <c r="BP12" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2352,76 +6638,205 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="596" t="s">
+        <v>804</v>
+      </c>
+      <c r="C13" s="584" t="s">
+        <v>794</v>
+      </c>
+      <c r="D13" s="572" t="s">
+        <v>782</v>
+      </c>
+      <c r="E13" s="560" t="s">
+        <v>770</v>
+      </c>
+      <c r="F13" s="548" t="s">
+        <v>760</v>
+      </c>
+      <c r="G13" s="536" t="s">
+        <v>748</v>
+      </c>
+      <c r="H13" s="524" t="s">
+        <v>736</v>
+      </c>
+      <c r="I13" s="512" t="s">
+        <v>724</v>
+      </c>
+      <c r="J13" s="500" t="s">
+        <v>713</v>
+      </c>
+      <c r="K13" s="488" t="s">
+        <v>699</v>
+      </c>
+      <c r="L13" s="476" t="s">
+        <v>695</v>
+      </c>
+      <c r="M13" s="464" t="s">
+        <v>683</v>
+      </c>
+      <c r="N13" s="452" t="s">
+        <v>671</v>
+      </c>
+      <c r="O13" s="440" t="s">
+        <v>659</v>
+      </c>
+      <c r="P13" s="428" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q13" s="416" t="s">
+        <v>635</v>
+      </c>
+      <c r="R13" s="404" t="s">
+        <v>622</v>
+      </c>
+      <c r="S13" s="392" t="s">
+        <v>610</v>
+      </c>
+      <c r="T13" s="380" t="s">
+        <v>597</v>
+      </c>
+      <c r="U13" s="368" t="s">
+        <v>584</v>
+      </c>
+      <c r="V13" s="356" t="s">
+        <v>573</v>
+      </c>
+      <c r="W13" s="344" t="s">
+        <v>560</v>
+      </c>
+      <c r="X13" s="332" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y13" s="320" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z13" s="308" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA13" s="296" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB13" s="284" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC13" s="272" t="s">
+        <v>483</v>
+      </c>
+      <c r="AD13" s="260" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE13" s="248" t="s">
+        <v>458</v>
+      </c>
+      <c r="AF13" s="236" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG13" s="224" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH13" s="212" t="s">
+        <v>419</v>
+      </c>
+      <c r="AI13" s="200" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ13" s="188" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK13" s="176" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL13" s="164" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM13" s="152" t="s">
+        <v>357</v>
+      </c>
+      <c r="AN13" s="140" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO13" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP13" s="116" t="s">
+        <v>319</v>
+      </c>
+      <c r="AQ13" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR13" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="AS13" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="AT13" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="AU13" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="AV13" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="AW13" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="AX13" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="AY13" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="AZ13" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="BA13" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="BB13" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="BC13" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="BD13" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="BE13" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="BF13" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="BG13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="BH13" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="BI13" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="BJ13" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="T13" s="0" t="s">
+      <c r="BK13" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="U13" s="0" t="s">
+      <c r="BL13" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="V13" s="0" t="s">
+      <c r="BM13" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="BN13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X13" s="0" t="s">
+      <c r="BO13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="Y13" s="0" t="s">
+      <c r="BP13" s="0" t="s">
         <v>6</v>
       </c>
     </row>
